--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_21-58.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_21-58.xlsx
@@ -267,9 +267,6 @@
   </si>
   <si>
     <t>GLYCERIN SOAP</t>
-  </si>
-  <si>
-    <t>GRIPE WATER BAMBINO SYRUP 120 ML</t>
   </si>
   <si>
     <t>HEPTA PANTHENOL CREAM 50 GM</t>
@@ -2679,7 +2676,7 @@
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>75</v>
+        <v>69.5</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
@@ -2699,17 +2696,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>69.5</v>
+        <v>86.5</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2725,17 +2722,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>86.5</v>
+        <v>27</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2751,17 +2748,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2777,13 +2774,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>58</v>
+        <v>38.5</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
@@ -2803,17 +2800,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>38.5</v>
+        <v>19</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2829,17 +2826,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
-        <v>0.5</v>
+        <v>0.40000000000000002</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2847,7 +2844,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2855,17 +2852,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
-        <v>0.40000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2881,13 +2878,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
@@ -2907,13 +2904,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
@@ -2933,17 +2930,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2959,17 +2956,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2985,17 +2982,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -3011,17 +3008,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -3037,13 +3034,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
@@ -3063,13 +3060,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="10">
@@ -3089,13 +3086,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>150</v>
+        <v>100.8</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10">
@@ -3115,13 +3112,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>100.8</v>
+        <v>60</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="10">
@@ -3141,17 +3138,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3167,17 +3164,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>46</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3193,17 +3190,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>24.960000000000001</v>
+        <v>36</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3219,17 +3216,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3251,7 +3248,7 @@
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>137</v>
+        <v>33.840000000000003</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10">
@@ -3271,17 +3268,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>33.840000000000003</v>
+        <v>31</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3297,17 +3294,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="10">
-        <v>1</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3315,7 +3312,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3323,17 +3320,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="10">
-        <v>0.10000000000000001</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3349,17 +3346,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="10">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3367,7 +3364,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3375,17 +3372,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="10">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3407,11 +3404,11 @@
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="10">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3427,17 +3424,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="10">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3459,7 +3456,7 @@
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="10">
@@ -3479,17 +3476,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3497,7 +3494,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3505,17 +3502,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>122</v>
+        <v>8</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="10">
-        <v>0.17000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3531,17 +3528,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3557,17 +3554,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3589,7 +3586,7 @@
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="10">
@@ -3609,13 +3606,13 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="10">
@@ -3635,13 +3632,13 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="10">
@@ -3661,13 +3658,13 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="10">
@@ -3687,13 +3684,13 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M101" s="9"/>
       <c r="N101" s="10">
@@ -3713,13 +3710,13 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="10">
@@ -3739,13 +3736,13 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>24</v>
+        <v>86.5</v>
       </c>
       <c r="M103" s="9"/>
       <c r="N103" s="10">
@@ -3765,17 +3762,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>86.5</v>
+        <v>26</v>
       </c>
       <c r="M104" s="9"/>
       <c r="N104" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3783,7 +3780,7 @@
         <v>102</v>
       </c>
       <c t="s" r="B105" s="7">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3791,17 +3788,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>26</v>
+        <v>134.40000000000001</v>
       </c>
       <c r="M105" s="9"/>
       <c r="N105" s="10">
-        <v>0.33000000000000002</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3817,17 +3814,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>134.40000000000001</v>
+        <v>60</v>
       </c>
       <c r="M106" s="9"/>
       <c r="N106" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3843,13 +3840,13 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="M107" s="9"/>
       <c r="N107" s="10">
@@ -3869,13 +3866,13 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="10">
@@ -3895,13 +3892,13 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>83</v>
+        <v>245</v>
       </c>
       <c r="M109" s="9"/>
       <c r="N109" s="10">
@@ -3913,7 +3910,7 @@
         <v>107</v>
       </c>
       <c t="s" r="B110" s="7">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3921,13 +3918,13 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>245</v>
+        <v>23</v>
       </c>
       <c r="M110" s="9"/>
       <c r="N110" s="10">
@@ -3953,11 +3950,11 @@
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3973,17 +3970,17 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="10">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -3999,17 +3996,17 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>168</v>
+        <v>74.689999999999998</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="10">
-        <v>3</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -4025,17 +4022,17 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>74.689999999999998</v>
+        <v>128</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="10">
-        <v>0.20000000000000001</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
@@ -4051,17 +4048,17 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1">
@@ -4077,13 +4074,13 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="10">
@@ -4103,17 +4100,17 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
@@ -4129,17 +4126,17 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>18</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M118" s="9"/>
       <c r="N118" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" ht="24.75" customHeight="1">
@@ -4155,17 +4152,17 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>24.960000000000001</v>
+        <v>17</v>
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="120" ht="25.5" customHeight="1">
@@ -4181,17 +4178,17 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="M120" s="9"/>
       <c r="N120" s="10">
-        <v>0.33000000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" ht="24.75" customHeight="1">
@@ -4199,7 +4196,7 @@
         <v>118</v>
       </c>
       <c t="s" r="B121" s="7">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -4207,17 +4204,17 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="M121" s="9"/>
       <c r="N121" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -4233,13 +4230,13 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>69</v>
+        <v>102.59999999999999</v>
       </c>
       <c r="M122" s="9"/>
       <c r="N122" s="10">
@@ -4259,13 +4256,13 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>102.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="M123" s="9"/>
       <c r="N123" s="10">
@@ -4285,17 +4282,17 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="M124" s="9"/>
       <c r="N124" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" ht="25.5" customHeight="1">
@@ -4311,17 +4308,17 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="M125" s="9"/>
       <c r="N125" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" ht="24.75" customHeight="1">
@@ -4329,7 +4326,7 @@
         <v>123</v>
       </c>
       <c t="s" r="B126" s="7">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -4337,13 +4334,13 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M126" s="9"/>
       <c r="N126" s="10">
@@ -4363,13 +4360,13 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M127" s="9"/>
       <c r="N127" s="10">
@@ -4381,7 +4378,7 @@
         <v>125</v>
       </c>
       <c t="s" r="B128" s="7">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -4389,13 +4386,13 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M128" s="9"/>
       <c r="N128" s="10">
@@ -4415,17 +4412,17 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c t="s" r="H129" s="8">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="9">
-        <v>30</v>
+        <v>98.400000000000006</v>
       </c>
       <c r="M129" s="9"/>
       <c r="N129" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" ht="25.5" customHeight="1">
@@ -4433,7 +4430,7 @@
         <v>127</v>
       </c>
       <c t="s" r="B130" s="7">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -4441,17 +4438,17 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c t="s" r="H130" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="9">
-        <v>98.400000000000006</v>
+        <v>20</v>
       </c>
       <c r="M130" s="9"/>
       <c r="N130" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" ht="24.75" customHeight="1">
@@ -4459,7 +4456,7 @@
         <v>128</v>
       </c>
       <c t="s" r="B131" s="7">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -4467,13 +4464,13 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c t="s" r="H131" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M131" s="9"/>
       <c r="N131" s="10">
@@ -4493,17 +4490,17 @@
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c t="s" r="H132" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
       <c r="L132" s="9">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M132" s="9"/>
       <c r="N132" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" ht="25.5" customHeight="1">
@@ -4511,7 +4508,7 @@
         <v>130</v>
       </c>
       <c t="s" r="B133" s="7">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -4519,17 +4516,17 @@
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c t="s" r="H133" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
       <c r="L133" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="M133" s="9"/>
       <c r="N133" s="10">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="134" ht="24.75" customHeight="1">
@@ -4537,7 +4534,7 @@
         <v>131</v>
       </c>
       <c t="s" r="B134" s="7">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -4545,17 +4542,17 @@
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c t="s" r="H134" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
       <c r="L134" s="9">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="M134" s="9"/>
       <c r="N134" s="10">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" ht="25.5" customHeight="1">
@@ -4563,7 +4560,7 @@
         <v>132</v>
       </c>
       <c t="s" r="B135" s="7">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -4571,17 +4568,17 @@
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c t="s" r="H135" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
       <c r="L135" s="9">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M135" s="9"/>
       <c r="N135" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" ht="24.75" customHeight="1">
@@ -4597,13 +4594,13 @@
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c t="s" r="H136" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
       <c r="L136" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M136" s="9"/>
       <c r="N136" s="10">
@@ -4623,13 +4620,13 @@
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c t="s" r="H137" s="8">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="I137" s="8"/>
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
       <c r="L137" s="9">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="M137" s="9"/>
       <c r="N137" s="10">
@@ -4649,13 +4646,13 @@
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c t="s" r="H138" s="8">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="I138" s="8"/>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
       <c r="L138" s="9">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="M138" s="9"/>
       <c r="N138" s="10">
@@ -4675,17 +4672,17 @@
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
       <c t="s" r="H139" s="8">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="I139" s="8"/>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
       <c r="L139" s="9">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="M139" s="9"/>
       <c r="N139" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" ht="25.5" customHeight="1">
@@ -4701,17 +4698,17 @@
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c t="s" r="H140" s="8">
-        <v>8</v>
+        <v>179</v>
       </c>
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
       <c r="L140" s="9">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="M140" s="9"/>
       <c r="N140" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" ht="24.75" customHeight="1">
@@ -4719,7 +4716,7 @@
         <v>138</v>
       </c>
       <c t="s" r="B141" s="7">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
@@ -4727,17 +4724,17 @@
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c t="s" r="H141" s="8">
-        <v>180</v>
+        <v>68</v>
       </c>
       <c r="I141" s="8"/>
       <c r="J141" s="8"/>
       <c r="K141" s="8"/>
       <c r="L141" s="9">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="M141" s="9"/>
       <c r="N141" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
@@ -4753,17 +4750,17 @@
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
       <c t="s" r="H142" s="8">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="I142" s="8"/>
       <c r="J142" s="8"/>
       <c r="K142" s="8"/>
       <c r="L142" s="9">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="M142" s="9"/>
       <c r="N142" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" ht="25.5" customHeight="1">
@@ -4779,13 +4776,13 @@
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
       <c t="s" r="H143" s="8">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="I143" s="8"/>
       <c r="J143" s="8"/>
       <c r="K143" s="8"/>
       <c r="L143" s="9">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="M143" s="9"/>
       <c r="N143" s="10">
@@ -4797,7 +4794,7 @@
         <v>141</v>
       </c>
       <c t="s" r="B144" s="7">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
@@ -4805,13 +4802,13 @@
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
       <c t="s" r="H144" s="8">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="I144" s="8"/>
       <c r="J144" s="8"/>
       <c r="K144" s="8"/>
       <c r="L144" s="9">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M144" s="9"/>
       <c r="N144" s="10">
@@ -4831,77 +4828,51 @@
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
       <c t="s" r="H145" s="8">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="I145" s="8"/>
       <c r="J145" s="8"/>
       <c r="K145" s="8"/>
       <c r="L145" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M145" s="9"/>
       <c r="N145" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="146" ht="24.75" customHeight="1">
-      <c r="A146" s="6">
-        <v>143</v>
-      </c>
-      <c t="s" r="B146" s="7">
+    <row r="146" ht="25.5" customHeight="1">
+      <c r="K146" s="11">
+        <v>9188.7399999999998</v>
+      </c>
+      <c r="L146" s="11"/>
+      <c r="M146" s="11"/>
+      <c r="N146" s="11"/>
+    </row>
+    <row r="147" ht="16.5" customHeight="1">
+      <c t="s" r="A147" s="12">
         <v>186</v>
       </c>
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="7"/>
-      <c t="s" r="H146" s="8">
-        <v>62</v>
-      </c>
-      <c r="I146" s="8"/>
-      <c r="J146" s="8"/>
-      <c r="K146" s="8"/>
-      <c r="L146" s="9">
-        <v>30</v>
-      </c>
-      <c r="M146" s="9"/>
-      <c r="N146" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" ht="26.25" customHeight="1">
-      <c r="K147" s="11">
-        <v>9263.7399999999998</v>
-      </c>
-      <c r="L147" s="11"/>
-      <c r="M147" s="11"/>
-      <c r="N147" s="11"/>
-    </row>
-    <row r="148" ht="16.5" customHeight="1">
-      <c t="s" r="A148" s="12">
+      <c r="B147" s="12"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+      <c t="s" r="F147" s="13">
         <v>187</v>
       </c>
-      <c r="B148" s="12"/>
-      <c r="C148" s="12"/>
-      <c r="D148" s="12"/>
-      <c r="E148" s="12"/>
-      <c t="s" r="F148" s="13">
+      <c r="G147" s="13"/>
+      <c r="H147" s="14"/>
+      <c t="s" r="I147" s="15">
         <v>188</v>
       </c>
-      <c r="G148" s="13"/>
-      <c r="H148" s="14"/>
-      <c t="s" r="I148" s="15">
-        <v>189</v>
-      </c>
-      <c r="J148" s="15"/>
-      <c r="K148" s="15"/>
-      <c r="L148" s="15"/>
-      <c r="M148" s="15"/>
-      <c r="N148" s="15"/>
+      <c r="J147" s="15"/>
+      <c r="K147" s="15"/>
+      <c r="L147" s="15"/>
+      <c r="M147" s="15"/>
+      <c r="N147" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="440">
+  <mergeCells count="437">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -5335,13 +5306,10 @@
     <mergeCell ref="B145:G145"/>
     <mergeCell ref="H145:K145"/>
     <mergeCell ref="L145:M145"/>
-    <mergeCell ref="B146:G146"/>
-    <mergeCell ref="H146:K146"/>
-    <mergeCell ref="L146:M146"/>
-    <mergeCell ref="K147:N147"/>
-    <mergeCell ref="A148:E148"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="I148:N148"/>
+    <mergeCell ref="K146:N146"/>
+    <mergeCell ref="A147:E147"/>
+    <mergeCell ref="F147:G147"/>
+    <mergeCell ref="I147:N147"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
